--- a/raw_data/comentarios_ibge.xlsx
+++ b/raw_data/comentarios_ibge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18315" windowHeight="12060" activeTab="3"/>
+    <workbookView windowWidth="32370" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
       <charset val="0"/>
     </font>
     <font>
@@ -631,7 +630,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
       <charset val="0"/>
     </font>
     <font>
@@ -670,9 +668,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,18 +699,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,14 +731,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,15 +769,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,7 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -769,51 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -825,7 +823,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,7 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +910,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,91 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1043,15 @@
       </top>
       <bottom style="thin">
         <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,20 +1086,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,17 +1112,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,166 +1144,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,12 +1307,12 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
@@ -1337,7 +1329,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1354,6 +1346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2046,8 +2041,8 @@
   <sheetPr/>
   <dimension ref="A8:U41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2205,7 +2200,7 @@
       <c r="Q14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="24">
         <v>21</v>
       </c>
       <c r="S14" s="21" t="s">
@@ -2214,7 +2209,7 @@
       <c r="T14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="24">
         <v>61</v>
       </c>
     </row>
@@ -2244,7 +2239,7 @@
       <c r="Q15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="24">
         <v>55</v>
       </c>
       <c r="S15" s="21" t="s">
@@ -2253,7 +2248,7 @@
       <c r="T15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="24">
         <v>9</v>
       </c>
     </row>
@@ -2283,7 +2278,7 @@
       <c r="Q16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="24">
         <v>11</v>
       </c>
       <c r="S16" s="21" t="s">
@@ -2292,7 +2287,7 @@
       <c r="T16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="24">
         <v>26</v>
       </c>
     </row>
@@ -2322,7 +2317,7 @@
       <c r="Q17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="24">
         <v>14</v>
       </c>
       <c r="S17" s="21" t="s">
@@ -2331,7 +2326,7 @@
       <c r="T17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2361,7 +2356,7 @@
       <c r="Q18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="24">
         <v>23</v>
       </c>
       <c r="S18" s="21" t="s">
@@ -2370,7 +2365,7 @@
       <c r="T18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="24">
         <v>36</v>
       </c>
     </row>
@@ -2400,7 +2395,7 @@
       <c r="Q19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="24">
         <v>38</v>
       </c>
       <c r="S19" s="21" t="s">
@@ -2409,7 +2404,7 @@
       <c r="T19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="24">
         <v>48</v>
       </c>
     </row>
@@ -2439,7 +2434,7 @@
       <c r="Q20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="24">
         <v>27</v>
       </c>
       <c r="S20" s="21" t="s">
@@ -2448,7 +2443,7 @@
       <c r="T20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="24">
         <v>27</v>
       </c>
     </row>
@@ -2478,7 +2473,7 @@
       <c r="Q21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="24">
         <v>42</v>
       </c>
       <c r="S21" s="21" t="s">
@@ -2487,7 +2482,7 @@
       <c r="T21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="24">
         <v>17</v>
       </c>
     </row>
@@ -2517,7 +2512,7 @@
       <c r="Q22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="24">
         <v>13</v>
       </c>
       <c r="S22" s="21" t="s">
@@ -2526,7 +2521,7 @@
       <c r="T22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="24">
         <v>69</v>
       </c>
     </row>
@@ -2556,7 +2551,7 @@
       <c r="Q23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="24">
         <v>30</v>
       </c>
       <c r="S23" s="21" t="s">
@@ -2565,7 +2560,7 @@
       <c r="T23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="24">
         <v>8</v>
       </c>
     </row>
@@ -2595,7 +2590,7 @@
       <c r="Q24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="24">
         <v>60</v>
       </c>
       <c r="S24" s="21" t="s">
@@ -2604,7 +2599,7 @@
       <c r="T24" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="24">
         <v>58</v>
       </c>
     </row>
@@ -2634,7 +2629,7 @@
       <c r="Q25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="24">
         <v>28</v>
       </c>
       <c r="S25" s="21" t="s">
@@ -2643,7 +2638,7 @@
       <c r="T25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="24">
         <v>26</v>
       </c>
     </row>
@@ -2673,7 +2668,7 @@
       <c r="Q26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="24">
         <v>19</v>
       </c>
       <c r="S26" s="21" t="s">
@@ -2682,7 +2677,7 @@
       <c r="T26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="24">
         <v>27</v>
       </c>
     </row>
@@ -2712,7 +2707,7 @@
       <c r="Q27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="24">
         <v>34</v>
       </c>
       <c r="S27" s="21" t="s">
@@ -2721,7 +2716,7 @@
       <c r="T27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="24">
         <v>15</v>
       </c>
     </row>
@@ -2751,7 +2746,7 @@
       <c r="Q28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="24">
         <v>9</v>
       </c>
       <c r="S28" s="21" t="s">
@@ -2760,7 +2755,7 @@
       <c r="T28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="24">
         <v>12</v>
       </c>
     </row>
@@ -5803,7 +5798,7 @@
   <sheetPr/>
   <dimension ref="A1:EI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="EG25" sqref="EG25"/>
     </sheetView>
   </sheetViews>
